--- a/mobi_client/mobi_client/mobi_config/has_limit_state_excel/004_属性对照表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/has_limit_state_excel/004_属性对照表.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel_has_limit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E357D3F-32A8-4E3C-94D5-0C1D725CA2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView xWindow="-26340" yWindow="165" windowWidth="14835" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attr|属性对照表" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -80,18 +99,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>LimitState</t>
-  </si>
-  <si>
-    <t>IN:[0;1]</t>
-  </si>
-  <si>
-    <t>IN:[0;1;2;3]</t>
-  </si>
-  <si>
-    <t>ID_OR_NULL:Attr</t>
   </si>
   <si>
     <t>hpMax</t>
@@ -705,18 +712,24 @@
   <si>
     <t>装备魔法防御力百分比</t>
   </si>
+  <si>
+    <t>LimitState</t>
+  </si>
+  <si>
+    <t>IN:[0;1]</t>
+  </si>
+  <si>
+    <t>IN:[0;1;2;3]</t>
+  </si>
+  <si>
+    <t>ID_OR_NULL:Attr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,148 +760,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,13 +779,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149876400036622"/>
+        <fgColor theme="0" tint="-0.1498458815271462"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,13 +797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399639881588183"/>
+        <fgColor theme="3" tint="0.39960936307870726"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,186 +815,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1141,358 +843,75 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1779,26 +1198,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="6" width="8.375" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="5" max="7" width="8.375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="8.375" customWidth="1"/>
     <col min="10" max="10" width="25.5" customWidth="1"/>
@@ -1806,133 +1224,133 @@
     <col min="12" max="12" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1958,15 +1376,15 @@
         <v>//生命</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1992,15 +1410,15 @@
         <v>//攻击</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2026,15 +1444,15 @@
         <v>//防御</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2054,15 +1472,15 @@
         <v>//物理攻击</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2082,15 +1500,15 @@
         <v>//物理防御</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2110,15 +1528,15 @@
         <v>//魔法攻击</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2138,15 +1556,15 @@
         <v>//魔法防御</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2166,15 +1584,15 @@
         <v>//无视防御</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2194,15 +1612,15 @@
         <v>//无视物理防御</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2222,15 +1640,15 @@
         <v>//无视魔法防御</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2250,15 +1668,15 @@
         <v>//最终伤害提升</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2278,15 +1696,15 @@
         <v>//最终伤害减免</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2306,15 +1724,15 @@
         <v>//最终伤害提升百分比</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2334,15 +1752,15 @@
         <v>//最终伤害减免减免</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>55</v>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2362,15 +1780,15 @@
         <v>//普攻伤害提升</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2390,15 +1808,15 @@
         <v>//普攻伤害减免</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>59</v>
+      <c r="B21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2418,15 +1836,15 @@
         <v>//终极技能伤害提升</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2445,17 +1863,17 @@
         <f t="shared" si="1"/>
         <v>//终极技能伤害减免</v>
       </c>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2481,15 +1899,15 @@
         <v>//暴击率</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2501,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2515,15 +1933,15 @@
         <v>//抗暴率</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2549,15 +1967,15 @@
         <v>//暴击伤害</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2577,15 +1995,15 @@
         <v>//格挡率</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2594,7 +2012,7 @@
         <v>-1000</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2608,15 +2026,15 @@
         <v>//穿透率</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2639,15 +2057,15 @@
         <v>//格挡效果</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2667,15 +2085,15 @@
         <v>//命中</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2698,15 +2116,15 @@
         <v>//闪避</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2726,15 +2144,15 @@
         <v>//治疗效果固定值</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2746,7 +2164,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2760,15 +2178,15 @@
         <v>//治疗效果</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2788,15 +2206,15 @@
         <v>//恢复效果固定值</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2808,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2822,15 +2240,15 @@
         <v>//恢复效果</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2845,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2859,15 +2277,15 @@
         <v>//吸血率</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2882,7 +2300,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2896,15 +2314,15 @@
         <v>//反伤率</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2927,15 +2345,15 @@
         <v>//伤害率</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2958,15 +2376,15 @@
         <v>//免伤率</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2986,15 +2404,15 @@
         <v>//个人回合行动前回怒</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3014,15 +2432,15 @@
         <v>//战斗波次获得怒气</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3042,15 +2460,15 @@
         <v>//受普攻攻击回怒</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3070,43 +2488,43 @@
         <v>//自己击杀敌方单体回怒</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:12">
-      <c r="A43" s="2">
+    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="B43" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="K43" s="2" t="str">
+      <c r="K43" s="1" t="str">
         <f t="shared" si="2"/>
         <v>rageMax=39,</v>
       </c>
-      <c r="L43" s="2" t="str">
+      <c r="L43" s="1" t="str">
         <f t="shared" si="3"/>
         <v>//怪物怒气上限</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>40</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>111</v>
+      <c r="B44" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3129,15 +2547,15 @@
         <v>//先手</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3157,15 +2575,15 @@
         <v>//生命百分比（战斗）</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3185,15 +2603,15 @@
         <v>//攻击百分比（战斗）</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3213,15 +2631,15 @@
         <v>//防御百分比（战斗）</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3241,15 +2659,15 @@
         <v>//物理攻击力百分比</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3269,15 +2687,15 @@
         <v>//物理防御力百分比</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>46</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>123</v>
+      <c r="B50" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3297,15 +2715,15 @@
         <v>//魔法攻击力百分比</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3325,15 +2743,15 @@
         <v>//魔法防御力百分比</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3353,15 +2771,15 @@
         <v>//对位伤害提升</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3381,15 +2799,15 @@
         <v>//对位伤害减免</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3409,15 +2827,15 @@
         <v>//非对位伤害提升</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -3437,15 +2855,15 @@
         <v>//非对位伤害减免</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3468,15 +2886,15 @@
         <v>//生命</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3499,15 +2917,15 @@
         <v>//攻击</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3530,15 +2948,15 @@
         <v>//防御</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3550,27 +2968,27 @@
         <v>-1000000</v>
       </c>
       <c r="I59" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L59" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>56</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>143</v>
+      <c r="B60" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3581,22 +2999,22 @@
       <c r="J60">
         <v>0</v>
       </c>
-      <c r="K60" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="L60" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="K60" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>57</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>147</v>
+      <c r="B61" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -3607,22 +3025,22 @@
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="K61" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="K61" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>58</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>151</v>
+      <c r="B62" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -3633,22 +3051,22 @@
       <c r="J62">
         <v>0</v>
       </c>
-      <c r="K62" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L62" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="K62" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>59</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>155</v>
+      <c r="B63" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -3659,42 +3077,42 @@
       <c r="J63">
         <v>0</v>
       </c>
-      <c r="K63" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="L63" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="K63" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>60</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>158</v>
+      <c r="B64" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
-      <c r="K64" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="L64" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="K64" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>61</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>109</v>
+      <c r="B65" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3705,23 +3123,23 @@
       <c r="J65">
         <v>1</v>
       </c>
-      <c r="K65" s="10" t="s">
-        <v>163</v>
+      <c r="K65" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="L65" t="str">
         <f t="shared" ref="L65:L67" si="4">"//"&amp;C65</f>
         <v>//怪物怒气上限</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>62</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>165</v>
+      <c r="B66" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3732,23 +3150,23 @@
       <c r="J66">
         <v>1</v>
       </c>
-      <c r="K66" s="10" t="s">
-        <v>166</v>
+      <c r="K66" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="L66" t="str">
         <f t="shared" si="4"/>
         <v>//怪物个人回合回怒</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1" spans="1:12">
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>63</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>168</v>
+      <c r="B67" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3759,23 +3177,23 @@
       <c r="J67">
         <v>1</v>
       </c>
-      <c r="K67" s="10" t="s">
-        <v>169</v>
+      <c r="K67" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="L67" t="str">
         <f t="shared" si="4"/>
         <v>//怪物初始怒气</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>2001</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>171</v>
+      <c r="B68" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3790,15 +3208,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>2002</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3813,15 +3231,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>2003</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -3836,15 +3254,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>2004</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3856,15 +3274,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>2005</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3876,15 +3294,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>2006</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3896,15 +3314,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>2007</v>
       </c>
       <c r="B74" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3916,15 +3334,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>3001</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3939,15 +3357,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>3002</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3962,15 +3380,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>3003</v>
       </c>
       <c r="B77" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3985,15 +3403,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>3004</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -4005,15 +3423,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>3005</v>
       </c>
       <c r="B79" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C79" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -4025,15 +3443,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>3006</v>
       </c>
       <c r="B80" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C80" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -4045,15 +3463,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>3007</v>
       </c>
       <c r="B81" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -4066,8 +3484,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>